--- a/data/2019 국내 데이터센터 분포(민간)_한국데이터센터연합회.xlsx
+++ b/data/2019 국내 데이터센터 분포(민간)_한국데이터센터연합회.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kj665\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kj665\environment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{727AAA22-4478-41A3-8213-F84941B66124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB85224-98B8-4E24-8F29-9B24E61859DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{A4AC16F8-D6CF-4680-937B-2609DBFAEA27}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{A4AC16F8-D6CF-4680-937B-2609DBFAEA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.4000000000000004</v>
+        <v>42.2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
